--- a/Connections.xlsx
+++ b/Connections.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bluemeanie/Git/teletype390/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033FC604-97B8-3543-8BDA-9DD6B0B5CC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E405D0-10D2-A846-9D64-5B34F81E3EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="3560" windowWidth="28040" windowHeight="23020" xr2:uid="{2BA0D91F-C89B-D14E-AF06-37918E06E187}"/>
+    <workbookView xWindow="2620" yWindow="3180" windowWidth="28040" windowHeight="23020" xr2:uid="{2BA0D91F-C89B-D14E-AF06-37918E06E187}"/>
   </bookViews>
   <sheets>
     <sheet name="Line" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="135">
   <si>
     <t>A2</t>
   </si>
@@ -382,9 +383,6 @@
     <t>Motor Lamp</t>
   </si>
   <si>
-    <t>Motor</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -407,6 +405,42 @@
   </si>
   <si>
     <t>Netz Lamp</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Add.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F Zus. Ader</t>
+  </si>
+  <si>
+    <t>B Zus. Ader</t>
+  </si>
+  <si>
+    <t>Zus. Ader</t>
   </si>
 </sst>
 </file>
@@ -455,12 +489,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -475,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,6 +523,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -797,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E94B78-F98C-C447-9319-8FBB40BCDC6E}">
-  <dimension ref="A1:P190"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,11 +851,11 @@
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C1" t="s">
@@ -822,27 +865,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -850,28 +887,49 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8">
@@ -881,126 +939,147 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
         <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" t="s">
-        <v>46</v>
       </c>
       <c r="H28">
         <v>413</v>
@@ -1014,47 +1093,35 @@
       <c r="K28">
         <v>507</v>
       </c>
-      <c r="L28" s="3">
-        <v>508</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="L28" t="s">
         <v>37</v>
       </c>
-      <c r="N28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O28" t="s">
-        <v>39</v>
-      </c>
-      <c r="P28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
@@ -1078,30 +1145,30 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
         <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
       </c>
       <c r="H35">
         <v>413</v>
@@ -1115,52 +1182,40 @@
       <c r="K35">
         <v>507</v>
       </c>
-      <c r="L35" s="3">
-        <v>508</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="L35" t="s">
         <v>37</v>
       </c>
-      <c r="N35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O35" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
         <v>28</v>
@@ -1180,45 +1235,33 @@
       <c r="K39">
         <v>507</v>
       </c>
-      <c r="L39" s="3">
-        <v>508</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="L39" t="s">
         <v>37</v>
       </c>
-      <c r="N39" t="s">
-        <v>38</v>
-      </c>
-      <c r="O39" t="s">
-        <v>39</v>
-      </c>
-      <c r="P39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>109</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C40">
         <v>502</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
@@ -1226,33 +1269,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>72</v>
       </c>
@@ -1260,7 +1303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>73</v>
       </c>
@@ -1294,7 +1337,7 @@
       <c r="A54" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C54">
@@ -1307,10 +1350,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="B56" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C56">
@@ -1318,14 +1358,17 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="B57" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C57">
         <v>508</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1334,33 +1377,24 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="B59" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>401</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>94</v>
+      <c r="D59" s="4">
+        <v>610</v>
       </c>
       <c r="F59" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="B60" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="3">
-        <v>401</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F60" t="s">
@@ -1371,19 +1405,24 @@
       <c r="A61" t="s">
         <v>112</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61">
+        <v>508</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>112</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C62" t="s">
@@ -1394,7 +1433,7 @@
       <c r="A63" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C63" t="s">
@@ -1416,62 +1455,62 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C69" t="s">
         <v>32</v>
       </c>
-      <c r="D69">
-        <v>2</v>
+      <c r="D69" t="s">
+        <v>90</v>
       </c>
       <c r="E69" t="s">
         <v>28</v>
@@ -1494,27 +1533,15 @@
       <c r="K69">
         <v>507</v>
       </c>
-      <c r="L69" s="3">
-        <v>508</v>
-      </c>
-      <c r="M69" t="s">
+      <c r="L69" t="s">
         <v>37</v>
       </c>
-      <c r="N69" t="s">
-        <v>38</v>
-      </c>
-      <c r="O69" t="s">
-        <v>39</v>
-      </c>
-      <c r="P69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="7" t="s">
         <v>93</v>
       </c>
       <c r="C70">
@@ -1522,51 +1549,45 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C72">
-        <v>1</v>
+      <c r="C72" t="s">
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C73" t="s">
         <v>32</v>
       </c>
-      <c r="D73">
-        <v>2</v>
+      <c r="D73" t="s">
+        <v>90</v>
       </c>
       <c r="E73" t="s">
         <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -1583,27 +1604,15 @@
       <c r="K73">
         <v>507</v>
       </c>
-      <c r="L73" s="3">
-        <v>508</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="L73" t="s">
         <v>37</v>
       </c>
-      <c r="N73" t="s">
-        <v>38</v>
-      </c>
-      <c r="O73" t="s">
-        <v>39</v>
-      </c>
-      <c r="P73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C74" t="s">
@@ -1626,11 +1635,11 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C75">
@@ -1638,76 +1647,31 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B77">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="7">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" t="s">
         <v>34</v>
       </c>
-      <c r="E77" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" t="s">
-        <v>36</v>
-      </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B78">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B78" s="7">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
-      </c>
-      <c r="E78" t="s">
-        <v>54</v>
-      </c>
-      <c r="F78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" t="s">
-        <v>46</v>
-      </c>
-      <c r="H78">
-        <v>413</v>
-      </c>
-      <c r="I78">
-        <v>715</v>
-      </c>
-      <c r="J78">
-        <v>615</v>
-      </c>
-      <c r="K78">
-        <v>507</v>
-      </c>
-      <c r="L78" s="3">
-        <v>508</v>
-      </c>
-      <c r="M78" t="s">
-        <v>37</v>
-      </c>
-      <c r="N78" t="s">
-        <v>38</v>
-      </c>
-      <c r="O78" t="s">
         <v>39</v>
       </c>
-      <c r="P78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B79">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="8">
         <v>3</v>
       </c>
       <c r="C79">
@@ -1726,53 +1690,44 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B80">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="7">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1">
-        <v>711</v>
-      </c>
-      <c r="E80" t="s">
         <v>42</v>
       </c>
-      <c r="F80" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>112</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C82" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>119</v>
-      </c>
-      <c r="B83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C84">
@@ -1802,57 +1757,54 @@
       <c r="K84" t="s">
         <v>28</v>
       </c>
-      <c r="L84">
-        <v>2</v>
-      </c>
-      <c r="M84" t="s">
+      <c r="L84" t="s">
         <v>37</v>
       </c>
-      <c r="N84" t="s">
-        <v>38</v>
-      </c>
-      <c r="O84" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>119</v>
-      </c>
-      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C85" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>112</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C86" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>121</v>
-      </c>
-      <c r="B87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C88" t="s">
@@ -1862,68 +1814,66 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C90">
         <v>403</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
+      <c r="C91">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+      <c r="C92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C93">
-        <v>401</v>
-      </c>
-      <c r="D93">
-        <v>610</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="D93" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="E93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C95">
@@ -1943,61 +1893,71 @@
       </c>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="5">
+      <c r="C97" s="5">
         <v>4</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F97" s="5">
-        <v>711</v>
-      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E98" s="3"/>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" s="4">
+        <v>614</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D99" s="5">
-        <v>4</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F99" s="5">
         <v>711</v>
       </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C100">
@@ -2010,8 +1970,11 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C101">
@@ -2032,7 +1995,10 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>126</v>
+      </c>
       <c r="B102" s="2" t="s">
         <v>61</v>
       </c>
@@ -2042,8 +2008,11 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C103" t="s">
@@ -2076,17 +2045,11 @@
       <c r="L103" t="s">
         <v>28</v>
       </c>
-      <c r="M103">
-        <v>2</v>
-      </c>
-      <c r="N103" t="s">
-        <v>38</v>
-      </c>
-      <c r="O103" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
       <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
@@ -2096,95 +2059,38 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C105" t="s">
-        <v>37</v>
+      <c r="C105">
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
-      </c>
-      <c r="E105">
-        <v>507</v>
-      </c>
-      <c r="F105">
-        <v>413</v>
-      </c>
-      <c r="G105">
-        <v>715</v>
-      </c>
-      <c r="H105">
-        <v>615</v>
-      </c>
-      <c r="I105" t="s">
-        <v>32</v>
-      </c>
-      <c r="J105" t="s">
-        <v>46</v>
-      </c>
-      <c r="K105" t="s">
-        <v>54</v>
-      </c>
-      <c r="L105" t="s">
-        <v>27</v>
-      </c>
-      <c r="M105" t="s">
-        <v>28</v>
-      </c>
-      <c r="N105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106">
         <v>2</v>
       </c>
-      <c r="O105" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>39</v>
-      </c>
-      <c r="C106" t="s">
-        <v>37</v>
-      </c>
       <c r="D106" t="s">
-        <v>90</v>
-      </c>
-      <c r="E106">
-        <v>507</v>
-      </c>
-      <c r="F106">
-        <v>413</v>
-      </c>
-      <c r="G106">
-        <v>715</v>
-      </c>
-      <c r="H106">
-        <v>615</v>
-      </c>
-      <c r="I106" t="s">
-        <v>32</v>
-      </c>
-      <c r="J106" t="s">
-        <v>46</v>
-      </c>
-      <c r="K106" t="s">
-        <v>54</v>
-      </c>
-      <c r="L106" t="s">
-        <v>27</v>
-      </c>
-      <c r="M106" t="s">
-        <v>28</v>
-      </c>
-      <c r="N106">
-        <v>2</v>
-      </c>
-      <c r="O106" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
       <c r="B107" s="2" t="s">
         <v>105</v>
       </c>
@@ -2194,26 +2100,23 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C108" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108">
+      <c r="C108">
         <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>35</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>128</v>
+      </c>
       <c r="B109" s="2" t="s">
         <v>106</v>
       </c>
@@ -2223,75 +2126,72 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" t="s">
-        <v>34</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="D110" t="s">
         <v>36</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>130</v>
+      </c>
       <c r="B111" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C112" t="s">
         <v>33</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="D112" t="s">
         <v>35</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C113" t="s">
         <v>85</v>
       </c>
-      <c r="D113" s="3">
-        <v>401</v>
-      </c>
-      <c r="E113" s="3" t="s">
+      <c r="D113" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G113" t="s">
-        <v>99</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C114" t="s">
@@ -2305,26 +2205,29 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C115" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="4">
         <v>401</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G115" t="s">
-        <v>98</v>
+      <c r="E115" s="4">
+        <v>610</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>131</v>
+      </c>
       <c r="B116" s="2" t="s">
         <v>108</v>
       </c>
@@ -2334,52 +2237,45 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B118">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="8">
         <v>401</v>
       </c>
       <c r="C118">
         <v>610</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="E118" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F118" s="3"/>
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
         <v>402</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="8">
         <v>403</v>
       </c>
       <c r="C120" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="8">
         <v>404</v>
       </c>
       <c r="C121">
         <v>613</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="8">
         <v>405</v>
       </c>
       <c r="C122">
@@ -2401,21 +2297,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="8">
         <v>406</v>
       </c>
       <c r="C123">
         <v>612</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="2">
         <v>407</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="8">
         <v>408</v>
       </c>
       <c r="C125">
@@ -2428,16 +2324,16 @@
         <v>812</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B126">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="8">
         <v>409</v>
       </c>
       <c r="C126" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="8">
         <v>410</v>
       </c>
       <c r="C127">
@@ -2452,9 +2348,12 @@
       <c r="F127" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B128">
+      <c r="G127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="8">
         <v>411</v>
       </c>
       <c r="C128">
@@ -2467,8 +2366,8 @@
         <v>812</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B129">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B129" s="8">
         <v>412</v>
       </c>
       <c r="C129" t="s">
@@ -2478,60 +2377,51 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B130">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B130" s="7">
         <v>413</v>
       </c>
-      <c r="C130">
-        <v>715</v>
-      </c>
-      <c r="D130">
-        <v>615</v>
+      <c r="C130" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" t="s">
+        <v>90</v>
       </c>
       <c r="E130">
         <v>507</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130">
+        <v>715</v>
+      </c>
+      <c r="G130">
+        <v>615</v>
+      </c>
+      <c r="H130" t="s">
         <v>32</v>
       </c>
-      <c r="G130" t="s">
+      <c r="I130" t="s">
         <v>46</v>
       </c>
-      <c r="H130" t="s">
+      <c r="J130" t="s">
         <v>54</v>
       </c>
-      <c r="I130" t="s">
+      <c r="K130" t="s">
         <v>27</v>
       </c>
-      <c r="J130" t="s">
+      <c r="L130" t="s">
         <v>28</v>
       </c>
-      <c r="K130">
-        <v>2</v>
-      </c>
-      <c r="L130" t="s">
-        <v>37</v>
-      </c>
-      <c r="M130" t="s">
-        <v>38</v>
-      </c>
-      <c r="N130" t="s">
-        <v>39</v>
-      </c>
-      <c r="O130" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B131">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B131" s="7">
         <v>414</v>
       </c>
       <c r="C131">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B132">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B132" s="8">
         <v>415</v>
       </c>
       <c r="C132">
@@ -2544,371 +2434,455 @@
         <v>812</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="8">
         <v>501</v>
       </c>
       <c r="C134" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>109</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="8">
         <v>502</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="8">
         <v>503</v>
       </c>
       <c r="C136" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
         <v>504</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B139" s="2">
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>116</v>
-      </c>
-      <c r="B140">
+        <v>115</v>
+      </c>
+      <c r="B140" s="7">
         <v>507</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="4">
         <v>413</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" t="s">
+        <v>90</v>
+      </c>
+      <c r="F140">
         <v>715</v>
       </c>
-      <c r="E140">
+      <c r="G140">
         <v>615</v>
       </c>
-      <c r="F140" t="s">
+      <c r="H140" t="s">
         <v>32</v>
       </c>
-      <c r="G140" t="s">
+      <c r="I140" t="s">
         <v>46</v>
       </c>
-      <c r="H140" t="s">
+      <c r="J140" t="s">
         <v>54</v>
       </c>
-      <c r="I140" t="s">
+      <c r="K140" t="s">
         <v>27</v>
       </c>
-      <c r="J140" t="s">
+      <c r="L140" t="s">
         <v>28</v>
       </c>
-      <c r="K140">
-        <v>2</v>
-      </c>
-      <c r="L140" t="s">
-        <v>37</v>
-      </c>
-      <c r="M140" t="s">
-        <v>38</v>
-      </c>
-      <c r="N140" t="s">
-        <v>39</v>
-      </c>
-      <c r="O140" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>123</v>
-      </c>
-      <c r="B141">
+        <v>122</v>
+      </c>
+      <c r="B141" s="8">
         <v>508</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>86</v>
+      </c>
+      <c r="E141" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>114</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="8">
         <v>509</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B144">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B144" s="8">
         <v>601</v>
       </c>
       <c r="C144">
+        <v>701</v>
+      </c>
+      <c r="D144">
+        <v>801</v>
+      </c>
+      <c r="E144" t="s">
+        <v>40</v>
+      </c>
+      <c r="F144" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144">
         <v>3</v>
       </c>
-      <c r="D144">
-        <v>701</v>
-      </c>
-      <c r="E144">
-        <v>801</v>
-      </c>
-      <c r="F144" t="s">
-        <v>40</v>
-      </c>
-      <c r="G144" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B145" s="3">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B145" s="7">
         <v>602</v>
       </c>
-    </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B146" s="3">
+      <c r="C145">
+        <v>702</v>
+      </c>
+      <c r="D145">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B146" s="7">
         <v>603</v>
       </c>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B147" s="3">
+      <c r="C146">
+        <v>703</v>
+      </c>
+      <c r="D146">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B147" s="7">
         <v>604</v>
       </c>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B148" s="3">
+      <c r="C147">
+        <v>704</v>
+      </c>
+      <c r="D147">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B148" s="7">
         <v>605</v>
       </c>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B149" s="3">
+      <c r="C148">
+        <v>705</v>
+      </c>
+      <c r="D148">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B149" s="7">
         <v>606</v>
       </c>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B150" s="3">
+      <c r="C149">
+        <v>706</v>
+      </c>
+      <c r="D149">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B150" s="7">
         <v>607</v>
       </c>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B151" s="3">
+      <c r="C150">
+        <v>707</v>
+      </c>
+      <c r="D150">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B151" s="7">
         <v>608</v>
       </c>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B152" s="3">
+      <c r="C151">
+        <v>708</v>
+      </c>
+      <c r="D151">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B152" s="7">
         <v>609</v>
       </c>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B153">
+      <c r="C152">
+        <v>709</v>
+      </c>
+      <c r="D152">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="8">
         <v>610</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D153" s="3">
+      <c r="C153" t="s">
+        <v>84</v>
+      </c>
+      <c r="D153" s="4">
         <v>401</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H153" s="3" t="s">
+      <c r="E153" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B154" s="3">
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B154" s="7">
         <v>611</v>
       </c>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B155">
+      <c r="C154" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B155" s="8">
         <v>612</v>
       </c>
       <c r="C155">
         <v>406</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B156">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B156" s="8">
         <v>613</v>
       </c>
       <c r="C156">
         <v>404</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B157">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B157" s="7">
         <v>614</v>
       </c>
-      <c r="C157">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B158">
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E157" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B158" s="7">
         <v>615</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="4">
+        <v>507</v>
+      </c>
+      <c r="D158" s="4">
+        <v>413</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" t="s">
+        <v>90</v>
+      </c>
+      <c r="G158">
+        <v>715</v>
+      </c>
+      <c r="H158" t="s">
+        <v>32</v>
+      </c>
+      <c r="I158" t="s">
+        <v>46</v>
+      </c>
+      <c r="J158" t="s">
+        <v>54</v>
+      </c>
+      <c r="K158" t="s">
         <v>27</v>
       </c>
-      <c r="D158" t="s">
-        <v>32</v>
-      </c>
-      <c r="E158">
-        <v>2</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="L158" t="s">
         <v>28</v>
       </c>
-      <c r="G158" t="s">
-        <v>54</v>
-      </c>
-      <c r="H158" t="s">
-        <v>46</v>
-      </c>
-      <c r="I158">
-        <v>413</v>
-      </c>
-      <c r="J158">
-        <v>715</v>
-      </c>
-      <c r="K158">
-        <v>507</v>
-      </c>
-      <c r="L158" s="3">
-        <v>508</v>
-      </c>
-      <c r="M158" t="s">
-        <v>37</v>
-      </c>
-      <c r="N158" t="s">
-        <v>38</v>
-      </c>
-      <c r="O158" t="s">
-        <v>39</v>
-      </c>
-      <c r="P158" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B160">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B160" s="8">
         <v>701</v>
       </c>
       <c r="C160">
+        <v>601</v>
+      </c>
+      <c r="D160">
+        <v>801</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" t="s">
+        <v>41</v>
+      </c>
+      <c r="G160">
         <v>3</v>
       </c>
-      <c r="D160">
-        <v>601</v>
-      </c>
-      <c r="E160">
-        <v>801</v>
-      </c>
-      <c r="F160" t="s">
-        <v>40</v>
-      </c>
-      <c r="G160" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B161" s="3">
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B161" s="7">
         <v>702</v>
       </c>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B162" s="3">
+      <c r="C161" s="4">
+        <v>602</v>
+      </c>
+      <c r="D161">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B162" s="7">
         <v>703</v>
       </c>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B163" s="3">
+      <c r="C162" s="4">
+        <v>603</v>
+      </c>
+      <c r="D162">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B163" s="7">
         <v>704</v>
       </c>
-    </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B164" s="3">
+      <c r="C163" s="4">
+        <v>604</v>
+      </c>
+      <c r="D163">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B164" s="7">
         <v>705</v>
       </c>
-    </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B165" s="3">
+      <c r="C164" s="4">
+        <v>605</v>
+      </c>
+      <c r="D164">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B165" s="7">
         <v>706</v>
       </c>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B166" s="3">
+      <c r="C165" s="4">
+        <v>606</v>
+      </c>
+      <c r="D165">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B166" s="7">
         <v>707</v>
       </c>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B167" s="3">
+      <c r="C166" s="4">
+        <v>607</v>
+      </c>
+      <c r="D166">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B167" s="7">
         <v>708</v>
       </c>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B168" s="3">
+      <c r="C167" s="4">
+        <v>608</v>
+      </c>
+      <c r="D167">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B168" s="7">
         <v>709</v>
       </c>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B169" s="3">
+      <c r="C168" s="4">
+        <v>609</v>
+      </c>
+      <c r="D168">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B169" s="7">
         <v>710</v>
       </c>
-    </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B170">
+      <c r="C169" s="4">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B170" s="7">
         <v>711</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
       </c>
-      <c r="D170">
-        <v>4</v>
-      </c>
-      <c r="E170" t="s">
-        <v>42</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="D170" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
         <v>712</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B172">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B172" s="8">
         <v>713</v>
       </c>
       <c r="C172" t="s">
@@ -2930,121 +2904,163 @@
         <v>815</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B173" s="3">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B173" s="7">
         <v>714</v>
       </c>
-    </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B174">
+      <c r="C173">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B174" s="7">
         <v>715</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="4">
+        <v>615</v>
+      </c>
+      <c r="D174" s="4">
+        <v>507</v>
+      </c>
+      <c r="E174" s="4">
+        <v>413</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G174" t="s">
+        <v>90</v>
+      </c>
+      <c r="H174" t="s">
+        <v>32</v>
+      </c>
+      <c r="I174" t="s">
+        <v>46</v>
+      </c>
+      <c r="J174" t="s">
         <v>54</v>
       </c>
-      <c r="D174" t="s">
-        <v>32</v>
-      </c>
-      <c r="E174">
-        <v>2</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="K174" t="s">
         <v>27</v>
       </c>
-      <c r="G174" t="s">
+      <c r="L174" t="s">
         <v>28</v>
       </c>
-      <c r="H174" t="s">
-        <v>46</v>
-      </c>
-      <c r="I174">
-        <v>413</v>
-      </c>
-      <c r="J174">
-        <v>615</v>
-      </c>
-      <c r="K174">
-        <v>507</v>
-      </c>
-      <c r="L174" s="3">
-        <v>508</v>
-      </c>
-      <c r="M174" t="s">
-        <v>37</v>
-      </c>
-      <c r="N174" t="s">
-        <v>38</v>
-      </c>
-      <c r="O174" t="s">
-        <v>39</v>
-      </c>
-      <c r="P174" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B176">
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B176" s="8">
         <v>801</v>
       </c>
       <c r="C176">
+        <v>601</v>
+      </c>
+      <c r="D176">
+        <v>701</v>
+      </c>
+      <c r="E176" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176" t="s">
+        <v>41</v>
+      </c>
+      <c r="G176">
         <v>3</v>
       </c>
-      <c r="D176">
-        <v>601</v>
-      </c>
-      <c r="E176">
-        <v>701</v>
-      </c>
-      <c r="F176" t="s">
-        <v>40</v>
-      </c>
-      <c r="G176" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B177" s="3">
+      <c r="B177" s="7">
         <v>802</v>
       </c>
+      <c r="C177" s="4">
+        <v>602</v>
+      </c>
+      <c r="D177">
+        <v>702</v>
+      </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B178" s="3">
+      <c r="B178" s="7">
         <v>803</v>
       </c>
+      <c r="C178" s="4">
+        <v>603</v>
+      </c>
+      <c r="D178">
+        <v>703</v>
+      </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B179" s="3">
+      <c r="B179" s="7">
         <v>804</v>
       </c>
+      <c r="C179" s="4">
+        <v>604</v>
+      </c>
+      <c r="D179">
+        <v>704</v>
+      </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B180" s="3">
+      <c r="B180" s="7">
         <v>805</v>
       </c>
+      <c r="C180" s="4">
+        <v>605</v>
+      </c>
+      <c r="D180">
+        <v>705</v>
+      </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B181" s="3">
+      <c r="B181" s="7">
         <v>806</v>
       </c>
+      <c r="C181" s="4">
+        <v>606</v>
+      </c>
+      <c r="D181">
+        <v>706</v>
+      </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B182" s="3">
+      <c r="B182" s="7">
         <v>807</v>
       </c>
+      <c r="C182" s="4">
+        <v>607</v>
+      </c>
+      <c r="D182">
+        <v>707</v>
+      </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B183" s="3">
+      <c r="B183" s="7">
         <v>808</v>
       </c>
+      <c r="C183" s="4">
+        <v>608</v>
+      </c>
+      <c r="D183">
+        <v>708</v>
+      </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B184" s="3">
+      <c r="B184" s="7">
         <v>809</v>
       </c>
+      <c r="C184" s="4">
+        <v>609</v>
+      </c>
+      <c r="D184">
+        <v>709</v>
+      </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B185" s="3">
+      <c r="B185" s="7">
         <v>810</v>
+      </c>
+      <c r="C185" s="4">
+        <v>710</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
@@ -3053,7 +3069,7 @@
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B187">
+      <c r="B187" s="8">
         <v>812</v>
       </c>
       <c r="C187">
@@ -3067,17 +3083,23 @@
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B188" s="3">
+      <c r="B188" s="7">
         <v>813</v>
       </c>
+      <c r="C188" s="4">
+        <v>814</v>
+      </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B189" s="3">
+      <c r="B189" s="7">
         <v>814</v>
       </c>
+      <c r="C189" s="4">
+        <v>813</v>
+      </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B190">
+      <c r="B190" s="8">
         <v>815</v>
       </c>
       <c r="C190" t="s">
